--- a/01.06.2023_51_COVID_19_cvod.xlsx
+++ b/01.06.2023_51_COVID_19_cvod.xlsx
@@ -1623,38 +1623,38 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ГБУ СПб НИИ СП им. И.И. Джанелидзе</t>
+          <t>СПб ГБУЗ "Городская больница №28 "Максимилиановская"</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1952</v>
+        <v>392</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1562</v>
+        <v>314</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1135</v>
+        <v>366</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>920</v>
+        <v>366</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>787</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>1939</v>
+        <v>385</v>
       </c>
       <c r="L5" s="63" t="n">
-        <v>99.33</v>
+        <v>98.20999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1665,14 +1665,14 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>СПб ГАУЗ "Городская поликлиника №40"</t>
+          <t>СПб ГБУЗ "Городская больница №9"</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
@@ -1681,22 +1681,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="L6" s="63" t="n">
-        <v>83.12</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="7">
@@ -1707,38 +1707,38 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>СПб ГАУЗ "Городская поликлиника №81"</t>
+          <t>СПб ГБУЗ Детский санаторий "Звездочка"</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L7" s="63" t="n">
-        <v>90.67</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="8">
@@ -1749,38 +1749,38 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>СПб ГАУЗ "Городская поликлиника №83"</t>
+          <t>СПБ ГБУЗ "МЕДСАНТРАНС"</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>130</v>
+        <v>2450</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>104</v>
+        <v>1960</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>30</v>
+        <v>1736</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>30</v>
+        <v>1732</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>104</v>
+        <v>2416</v>
       </c>
       <c r="L8" s="63" t="n">
-        <v>80</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="9">
@@ -1791,38 +1791,38 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>СПб ГАУЗ "Поликлиника городская стоматологическая №22"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №2"</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="L9" s="63" t="n">
-        <v>72.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1833,1505 +1833,1505 @@
       </c>
       <c r="B10" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБОУ СПО "Медицинский колледж №1"</t>
+          <t>СПб ГКУЗ Детский туберкулезный санаторий "Дружба"</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="L10" s="63" t="n">
-        <v>96.45</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>20.10.2022</t>
         </is>
       </c>
       <c r="B11" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБОУ СПО "Медицинский колледж №2"</t>
+          <t>КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L11" s="63" t="n">
-        <v>96.39</v>
+        <v>92.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B12" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБОУ СПО "Медицинский колледж №3"</t>
+          <t>ГБУ СПб НИИ СП им. И.И. Джанелидзе</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>145</v>
+        <v>1962</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>116</v>
+        <v>1570</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>21</v>
+        <v>1135</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>21</v>
+        <v>920</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>120</v>
+        <v>787</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>141</v>
+        <v>1939</v>
       </c>
       <c r="L12" s="63" t="n">
-        <v>97.23999999999999</v>
+        <v>98.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B13" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБПОУ "АК"</t>
+          <t>СПб ГАУЗ "Городская поликлиника №40"</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>24</v>
-      </c>
       <c r="I13" s="3" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L13" s="63" t="n">
-        <v>97.58</v>
+        <v>85.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B14" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБПОУ "Медицинский техникум №9"</t>
+          <t>СПб ГАУЗ "Городская поликлиника №81"</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="L14" s="63" t="n">
-        <v>83</v>
+        <v>90.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B15" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБПОУ "МТ №2"</t>
+          <t>СПб ГАУЗ "Городская поликлиника №83"</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="L15" s="63" t="n">
-        <v>95.56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B16" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБПОУ "Фельдшерский колледж"</t>
+          <t>СПб ГАУЗ "Поликлиника городская стоматологическая №22"</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="L16" s="63" t="n">
-        <v>86</v>
+        <v>72.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУ ДПО "ЦПО СМП"</t>
+          <t>СПб ГАУЗ "Хоспис (детский)"</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="L17" s="63" t="n">
-        <v>92.05</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B18" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУ "Стройкомплект"</t>
+          <t>СПб ГБОУ СПО "Медицинский колледж №1"</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="L18" s="63" t="n">
-        <v>72.31</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Александровская больница"</t>
+          <t>СПб ГБОУ СПО "Медицинский колледж №2"</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>2070</v>
+        <v>162</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>1656</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>443</v>
+        <v>19</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>443</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>1442</v>
+        <v>117</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>2015</v>
+        <v>153</v>
       </c>
       <c r="L19" s="63" t="n">
-        <v>97.34</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B20" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Бюро судебно-медицинской экспертизы"</t>
+          <t>СПб ГБОУ СПО "Медицинский колледж №3"</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>383</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="L20" s="63" t="n">
-        <v>89.98</v>
+        <v>98.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУЗ "Введенская больница"</t>
+          <t>СПБ ГБПОУ "АК"</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="L21" s="63" t="n">
-        <v>95.52</v>
+        <v>97.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B22" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ ВЦДОиТ "Огонек"</t>
+          <t>СПб ГБПОУ "Медицинский техникум №9"</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="L22" s="63" t="n">
-        <v>99.05</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница Святого Великомученика Георгия"</t>
+          <t>СПБ ГБПОУ "МТ №2"</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1415</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>1132</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>800</v>
+        <v>76</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>756</v>
+        <v>75</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>517</v>
+        <v>9</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>1317</v>
+        <v>86</v>
       </c>
       <c r="L23" s="63" t="n">
-        <v>93.06999999999999</v>
+        <v>95.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B24" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница Святой преподобномученицы Елизаветы"</t>
+          <t>СПБ ГБПОУ "Фельдшерский колледж"</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>1872</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>1498</v>
+        <v>120</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>785</v>
+        <v>14</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>694</v>
+        <v>106</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>1507</v>
+        <v>127</v>
       </c>
       <c r="L24" s="63" t="n">
-        <v>80.5</v>
+        <v>84.67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №15"</t>
+          <t>СПБ ГБУ ДПО "ЦПО СМП"</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1117</v>
+        <v>88</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>894</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>671</v>
+        <v>65</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>671</v>
+        <v>65</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>1076</v>
+        <v>81</v>
       </c>
       <c r="L25" s="63" t="n">
-        <v>96.33</v>
+        <v>92.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B26" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №26"</t>
+          <t>СПб ГБУ "Стройкомплект"</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1702</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>1362</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>36</v>
-      </c>
       <c r="H26" s="3" t="n">
-        <v>1264</v>
+        <v>19</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>1264</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>1677</v>
+        <v>57</v>
       </c>
       <c r="L26" s="63" t="n">
-        <v>98.53</v>
+        <v>87.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №28 "Максимилиановская"</t>
+          <t>СПб ГБУЗ "Александровская больница"</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>392</v>
+        <v>2067</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>314</v>
+        <v>1654</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>10</v>
+        <v>1448</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>385</v>
+        <v>2024</v>
       </c>
       <c r="L27" s="63" t="n">
-        <v>98.20999999999999</v>
+        <v>97.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №38 им. Н.А.Семашко"</t>
+          <t>СПб ГБУЗ "Бюро судебно-медицинской экспертизы"</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>950</v>
+        <v>479</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>760</v>
+        <v>383</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>595</v>
+        <v>241</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>580</v>
+        <v>235</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>332</v>
+        <v>181</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>942</v>
+        <v>431</v>
       </c>
       <c r="L28" s="63" t="n">
-        <v>99.16</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №9"</t>
+          <t>СПБ ГБУЗ "Введенская больница"</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="L29" s="63" t="n">
-        <v>81.42</v>
+        <v>95.52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская детская стоматологическая поликлиника №6"</t>
+          <t>СПб ГБУЗ ВЦДОиТ "Огонек"</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="L30" s="63" t="n">
-        <v>92.86</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская клиническая больница №31"</t>
+          <t>СПб ГБУЗ "Городская больница Святого Великомученика Георгия"</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>851</v>
+        <v>1415</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>681</v>
+        <v>1132</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>456</v>
+        <v>800</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>452</v>
+        <v>756</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>360</v>
+        <v>517</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>851</v>
+        <v>1317</v>
       </c>
       <c r="L31" s="63" t="n">
-        <v>100</v>
+        <v>93.06999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская Мариинская больница"</t>
+          <t>СПб ГБУЗ "Городская больница Святой преподобномученицы Елизаветы"</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>2312</v>
+        <v>1857</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>1850</v>
+        <v>1486</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>876</v>
+        <v>785</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>622</v>
+        <v>729</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>1151</v>
+        <v>694</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>2198</v>
+        <v>1504</v>
       </c>
       <c r="L32" s="63" t="n">
-        <v>95.06999999999999</v>
+        <v>80.98999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская многопрофильная больница №2"</t>
+          <t>СПб ГБУЗ "Городская больница №14"</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>1655</v>
+        <v>360</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>1324</v>
+        <v>288</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>962</v>
+        <v>168</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>962</v>
+        <v>86</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>596</v>
+        <v>132</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>1604</v>
+        <v>300</v>
       </c>
       <c r="L33" s="63" t="n">
-        <v>96.92</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская наркологическая больница"</t>
+          <t>СПб ГБУЗ "Городская больница №15"</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>640</v>
+        <v>1117</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>512</v>
+        <v>894</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>356</v>
+        <v>671</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>356</v>
+        <v>671</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>592</v>
+        <v>1076</v>
       </c>
       <c r="L34" s="63" t="n">
-        <v>92.5</v>
+        <v>96.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская Покровская больница"</t>
+          <t>СПб ГБУЗ "Городская больница №26"</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>992</v>
+        <v>1702</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>794</v>
+        <v>1362</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>750</v>
+        <v>1264</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>673</v>
+        <v>1264</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>934</v>
+        <v>1647</v>
       </c>
       <c r="L35" s="63" t="n">
-        <v>94.15000000000001</v>
+        <v>96.77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B36" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская психиатрическая больница №7 им.акад.И.П.Павлова"</t>
+          <t>СПб ГБУЗ "Городская больница №38 им. Н.А.Семашко"</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>214</v>
+        <v>950</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>171</v>
+        <v>760</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>74</v>
+        <v>595</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>73</v>
+        <v>580</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>154</v>
+        <v>942</v>
       </c>
       <c r="L36" s="63" t="n">
-        <v>71.95999999999999</v>
+        <v>99.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская станция скорой медицинской помощи"</t>
+          <t>СПб ГБУЗ "Городская детская стоматологическая поликлиника №6"</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>2063</v>
+        <v>70</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>1650</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>1592</v>
+        <v>60</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>1592</v>
+        <v>60</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>460</v>
+        <v>3</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>2063</v>
+        <v>63</v>
       </c>
       <c r="L37" s="63" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B38" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская стоматологическая поликлиника №33"</t>
+          <t>СПб ГБУЗ "Городская клиническая больница №31"</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>354</v>
+        <v>861</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>283</v>
+        <v>689</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>339</v>
+        <v>861</v>
       </c>
       <c r="L38" s="63" t="n">
-        <v>95.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская туберкулезная больница №2"</t>
+          <t>СПб ГБУЗ "Городская Мариинская больница"</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>310</v>
+        <v>2310</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>248</v>
+        <v>1848</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>160</v>
+        <v>821</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>110</v>
+        <v>587</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>100</v>
+        <v>1209</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>285</v>
+        <v>2199</v>
       </c>
       <c r="L39" s="63" t="n">
-        <v>91.94</v>
+        <v>95.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городское патологоанатомическое бюро"</t>
+          <t>СПб ГБУЗ "Городская многопрофильная больница №2"</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>193</v>
+        <v>1655</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>154</v>
+        <v>1324</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>60</v>
+        <v>962</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>60</v>
+        <v>962</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>120</v>
+        <v>596</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>183</v>
+        <v>1602</v>
       </c>
       <c r="L40" s="63" t="n">
-        <v>94.81999999999999</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городской врачебно-физкультурный диспансер"</t>
+          <t>СПб ГБУЗ "Городская наркологическая больница"</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>174</v>
+        <v>640</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>139</v>
+        <v>512</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>127</v>
+        <v>591</v>
       </c>
       <c r="L41" s="63" t="n">
-        <v>72.98999999999999</v>
+        <v>92.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городской гериатрический медико-социальный центр"</t>
+          <t>СПб ГБУЗ "Городская Покровская больница"</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>518</v>
+        <v>995</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>414</v>
+        <v>796</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>55</v>
+        <v>753</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>55</v>
+        <v>675</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>378</v>
+        <v>184</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
       <c r="L42" s="63" t="n">
-        <v>84.94</v>
+        <v>94.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городской клинический онкологический диспансер"</t>
+          <t>СПб ГБУЗ "Городская психиатрическая больница №7 им.акад.И.П.Павлова"</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1336</v>
+        <v>214</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>1069</v>
+        <v>171</v>
       </c>
       <c r="E43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>444</v>
+        <v>73</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>444</v>
+        <v>72</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>535</v>
+        <v>77</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>1047</v>
+        <v>157</v>
       </c>
       <c r="L43" s="63" t="n">
-        <v>78.37</v>
+        <v>73.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городской кожно-венерологический диспансер"</t>
+          <t>СПб ГБУЗ "Городская станция скорой медицинской помощи"</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>277</v>
+        <v>2061</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>222</v>
+        <v>1649</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>4</v>
+        <v>1592</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>4</v>
+        <v>1592</v>
       </c>
       <c r="J44" s="3" t="n">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>222</v>
+        <v>2061</v>
       </c>
       <c r="L44" s="63" t="n">
-        <v>80.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городской консультативно-диагностический центр №1"</t>
+          <t>СПб ГБУЗ "Городская стоматологическая поликлиника №33"</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>639</v>
+        <v>354</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>511</v>
+        <v>283</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>557</v>
+        <v>78</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>557</v>
+        <v>78</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>639</v>
+        <v>354</v>
       </c>
       <c r="L45" s="63" t="n">
         <v>100</v>
@@ -3340,691 +3340,691 @@
     <row r="46">
       <c r="A46" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городской противотуберкулезный диспансер"</t>
+          <t>СПб ГБУЗ "Городская туберкулезная больница №2"</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>442</v>
+        <v>285</v>
       </c>
       <c r="L46" s="63" t="n">
-        <v>96.09</v>
+        <v>91.94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ Городской туберкулезный санаторий "Сосновый Бор"</t>
+          <t>СПб ГБУЗ "Городское патологоанатомическое бюро"</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>2</v>
-      </c>
       <c r="H47" s="3" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="L47" s="63" t="n">
-        <v>93.90000000000001</v>
+        <v>94.81999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Госпиталь для ветеранов войн"</t>
+          <t>СПб ГБУЗ "Городской врачебно-физкультурный диспансер"</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1377</v>
+        <v>174</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>1102</v>
+        <v>139</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>561</v>
+        <v>67</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>561</v>
+        <v>67</v>
       </c>
       <c r="J48" s="3" t="n">
-        <v>767</v>
+        <v>58</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>1343</v>
+        <v>126</v>
       </c>
       <c r="L48" s="63" t="n">
-        <v>97.53</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "ГПЦ №1"</t>
+          <t>СПб ГБУЗ "Городской гериатрический медико-социальный центр"</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>126</v>
+        <v>383</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="L49" s="63" t="n">
-        <v>95.86</v>
+        <v>85.58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ ГЦОРЗП "Ювента"</t>
+          <t>СПб ГБУЗ "Городской клинический онкологический диспансер"</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>110</v>
+        <v>1337</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>88</v>
+        <v>1070</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>106</v>
+        <v>1033</v>
       </c>
       <c r="L50" s="63" t="n">
-        <v>96.36</v>
+        <v>77.26000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "ДГБ №2 святой Марии Магдалины"</t>
+          <t>СПб ГБУЗ "Городской кожно-венерологический диспансер"</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>642</v>
+        <v>277</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>514</v>
+        <v>222</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>560</v>
+        <v>222</v>
       </c>
       <c r="L51" s="63" t="n">
-        <v>87.23</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУЗ "ДГМКЦ ВМТ им. К.А. Раухфуса"</t>
+          <t>СПб ГБУЗ "Городской консультативно-диагностический центр №1"</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>822</v>
+        <v>639</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>658</v>
+        <v>511</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>768</v>
+        <v>639</v>
       </c>
       <c r="L52" s="63" t="n">
-        <v>93.43000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Детская городская больница Святой Ольги"</t>
+          <t>СПб ГБУЗ "Городской противотуберкулезный диспансер"</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="E53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="L53" s="63" t="n">
-        <v>72.43000000000001</v>
+        <v>96.09</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Детская городская больница №17 Святителя Николая Чудотворца"</t>
+          <t>СПб ГБУЗ Городской туберкулезный санаторий "Сосновый Бор"</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L54" s="63" t="n">
-        <v>24.77</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Детская городская клиническая больница №5 имени Нила Федоровича Филатова"</t>
+          <t>СПб ГБУЗ "Госпиталь для ветеранов войн"</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>996</v>
+        <v>1377</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>797</v>
+        <v>1102</v>
       </c>
       <c r="E55" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="J55" s="3" t="n">
-        <v>393</v>
+        <v>767</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>896</v>
+        <v>1343</v>
       </c>
       <c r="L55" s="63" t="n">
-        <v>89.95999999999999</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Детская инфекционная больница №3"</t>
+          <t>СПб ГБУЗ "ГПЦ №1"</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>242</v>
+        <v>411</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="I56" s="3" t="n">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="L56" s="63" t="n">
-        <v>99.17</v>
+        <v>95.86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУЗ "Детский городской многопрофильный клинический специализированный центр высоких медицинских технологий"</t>
+          <t>СПб ГБУЗ ГЦОРЗП "Ювента"</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1363</v>
+        <v>110</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>1090</v>
+        <v>88</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>1030</v>
+        <v>79</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>1198</v>
+        <v>107</v>
       </c>
       <c r="L57" s="63" t="n">
-        <v>87.89</v>
+        <v>97.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ Детский психоневрологический санаторий "Комарово"</t>
+          <t>СПб ГБУЗ "ДГБ №2 святой Марии Магдалины"</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>173</v>
+        <v>643</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>138</v>
+        <v>514</v>
       </c>
       <c r="E58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>87</v>
+        <v>322</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>128</v>
+        <v>559</v>
       </c>
       <c r="L58" s="63" t="n">
-        <v>73.98999999999999</v>
+        <v>86.94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Детский санаторий - РЦ "Детские Дюны"</t>
+          <t>СПБ ГБУЗ "ДГМКЦ ВМТ им. К.А. Раухфуса"</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>325</v>
+        <v>822</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>260</v>
+        <v>658</v>
       </c>
       <c r="E59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>141</v>
+        <v>350</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>176</v>
+        <v>768</v>
       </c>
       <c r="L59" s="63" t="n">
-        <v>54.15</v>
+        <v>93.43000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ Детский санаторий "Звездочка"</t>
+          <t>СПб ГБУЗ "Детская городская больница Святой Ольги"</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>66</v>
+        <v>526</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>53</v>
+        <v>421</v>
       </c>
       <c r="E60" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="L60" s="63" t="n">
-        <v>80.3</v>
+        <v>72.23999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ Детский санаторий "Пионер" (психоневрологический)</t>
+          <t>СПб ГБУЗ "Детская городская больница №17 Святителя Николая Чудотворца"</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="E61" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="L61" s="63" t="n">
-        <v>21.9</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ Детский санаторий "Солнечное"</t>
+          <t>СПб ГБУЗ "Детская городская клиническая больница №5 имени Нила Федоровича Филатова"</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>414</v>
+        <v>996</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>331</v>
+        <v>797</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>0</v>
@@ -4033,880 +4033,880 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>155</v>
+        <v>495</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>67</v>
+        <v>448</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>2</v>
+        <v>394</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>166</v>
+        <v>898</v>
       </c>
       <c r="L62" s="63" t="n">
-        <v>40.1</v>
+        <v>90.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Детский центр восстановительной медицины и реабилитации №3"</t>
+          <t>СПб ГБУЗ "Детская инфекционная больница №3"</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="E63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="I63" s="3" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L63" s="63" t="n">
-        <v>100</v>
+        <v>99.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Диагностический Центр №7" (глазной) для взрослого и детского населения</t>
+          <t>СПБ ГБУЗ "Детский городской многопрофильный клинический специализированный центр высоких медицинских технологий"</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>383</v>
+        <v>1553</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>306</v>
+        <v>1242</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>7</v>
+        <v>560</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>7</v>
+        <v>560</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>43</v>
+        <v>1220</v>
       </c>
       <c r="L64" s="63" t="n">
-        <v>11.23</v>
+        <v>78.56</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУЗ КДЦД</t>
+          <t>СПб ГБУЗ Детский психоневрологический санаторий "Комарово"</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="L65" s="63" t="n">
-        <v>98.70999999999999</v>
+        <v>75.29000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Клиническая больница Святителя Луки"</t>
+          <t>СПб ГБУЗ "Детский санаторий - РЦ "Детские Дюны"</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>640</v>
+        <v>325</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>512</v>
+        <v>260</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="L66" s="63" t="n">
-        <v>69.53</v>
+        <v>50.46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Клиническая инфекционная больница им. С.П. Боткина"</t>
+          <t>СПб ГБУЗ Детский санаторий "Пионер" (психоневрологический)</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
-        <v>2654</v>
+        <v>105</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>2123</v>
+        <v>84</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="G67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="H67" s="3" t="n">
-        <v>1913</v>
-      </c>
-      <c r="I67" s="3" t="n">
-        <v>1395</v>
-      </c>
-      <c r="J67" s="3" t="n">
-        <v>295</v>
-      </c>
       <c r="K67" s="3" t="n">
-        <v>2504</v>
+        <v>23</v>
       </c>
       <c r="L67" s="63" t="n">
-        <v>94.34999999999999</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Клиническая ревматологическая больница №25"</t>
+          <t>СПб ГБУЗ Детский санаторий "Солнечное"</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>273</v>
+        <v>414</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="L68" s="63" t="n">
-        <v>87.18000000000001</v>
+        <v>39.61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "КНпЦСВМП(о)"</t>
+          <t>СПб ГБУЗ "Детский центр восстановительной медицины и реабилитации №3"</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1415</v>
+        <v>96</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>1132</v>
+        <v>77</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G69" s="3" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>720</v>
+        <v>75</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>1030</v>
+        <v>96</v>
       </c>
       <c r="L69" s="63" t="n">
-        <v>72.79000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Медицинский информационно-аналитический центр"</t>
+          <t>СПб ГБУЗ "Диагностический Центр №7" (глазной) для взрослого и детского населения</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="L70" s="63" t="n">
-        <v>88.47</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУЗ "МЕДСАНТРАНС"</t>
+          <t>СПБ ГБУЗ КДЦД</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>2450</v>
+        <v>311</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>1960</v>
+        <v>249</v>
       </c>
       <c r="E71" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>1736</v>
+        <v>141</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1732</v>
+        <v>141</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>340</v>
+        <v>162</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>2416</v>
+        <v>307</v>
       </c>
       <c r="L71" s="63" t="n">
-        <v>98.61</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Межрайонный Петроградско-Приморский противотуберкулезный диспансер №3"</t>
+          <t>СПб ГБУЗ "Клиническая больница Святителя Луки"</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>117</v>
+        <v>625</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>94</v>
+        <v>500</v>
       </c>
       <c r="E72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G72" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>112</v>
+        <v>417</v>
       </c>
       <c r="L72" s="63" t="n">
-        <v>95.73</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №11"</t>
+          <t>СПб ГБУЗ "Клиническая инфекционная больница им. С.П. Боткина"</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
-        <v>90</v>
+        <v>2654</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>72</v>
+        <v>2123</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="G73" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>56</v>
+        <v>1913</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>56</v>
+        <v>1395</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>84</v>
+        <v>2504</v>
       </c>
       <c r="L73" s="63" t="n">
-        <v>93.33</v>
+        <v>94.34999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №12"</t>
+          <t>СПб ГБУЗ "Клиническая ревматологическая больница №25"</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="E74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="L74" s="63" t="n">
-        <v>24.32</v>
+        <v>87.18000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №14"</t>
+          <t>СПб ГБУЗ "КНпЦСВМП(о)"</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
-        <v>84</v>
+        <v>1415</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>67</v>
+        <v>1132</v>
       </c>
       <c r="E75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>71</v>
+        <v>1022</v>
       </c>
       <c r="L75" s="63" t="n">
-        <v>84.52</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №15"</t>
+          <t>СПб ГБУЗ "Медицинский информационно-аналитический центр"</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="E76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="I76" s="3" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="L76" s="63" t="n">
-        <v>100</v>
+        <v>88.18000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №16"</t>
+          <t>СПб ГБУЗ "Межрайонный Петроградско-Приморский противотуберкулезный диспансер №3"</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L77" s="63" t="n">
-        <v>88.45999999999999</v>
+        <v>95.73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №2"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №11"</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="L78" s="63" t="n">
-        <v>100</v>
+        <v>90.63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №4"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №12"</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I79" s="3" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J79" s="3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L79" s="63" t="n">
-        <v>85.19</v>
+        <v>24.32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №8"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №14"</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I80" s="3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L80" s="63" t="n">
-        <v>92.98</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Психиатрическая больница №1 им.П.П.Кащенко"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №15"</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
-        <v>1489</v>
+        <v>62</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>1191</v>
+        <v>50</v>
       </c>
       <c r="E81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>1099</v>
+        <v>2</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>1099</v>
+        <v>2</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>1448</v>
+        <v>62</v>
       </c>
       <c r="L81" s="63" t="n">
-        <v>97.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Пушкинский противотуберкулезный диспансер"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №16"</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J82" s="3" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="L82" s="63" t="n">
-        <v>79.11</v>
+        <v>88.45999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №1 (специализированный)"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №4"</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="E83" s="3" t="n">
         <v>0</v>
@@ -4915,460 +4915,460 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="L83" s="63" t="n">
-        <v>92.59</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №10"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №5"</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="E84" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G84" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="I84" s="3" t="n">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>450</v>
+        <v>169</v>
       </c>
       <c r="L84" s="63" t="n">
-        <v>100</v>
+        <v>91.34999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №13"</t>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №8"</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E85" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="I85" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="L85" s="63" t="n">
-        <v>100</v>
+        <v>92.98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №16"</t>
+          <t>СПб ГБУЗ "Психиатрическая больница №1 им.П.П.Кащенко"</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
-        <v>370</v>
+        <v>1489</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>296</v>
+        <v>1191</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G86" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>20</v>
+        <v>1099</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>20</v>
+        <v>1099</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>150</v>
+        <v>1448</v>
       </c>
       <c r="L86" s="63" t="n">
-        <v>40.54</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №17"</t>
+          <t>СПб ГБУЗ "Пушкинский противотуберкулезный диспансер"</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E87" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I87" s="3" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J87" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K87" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="K87" s="3" t="n">
-        <v>173</v>
-      </c>
       <c r="L87" s="63" t="n">
-        <v>86.5</v>
+        <v>78.48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №6 им. проф. В.Ф.Снегирева"</t>
+          <t>СПб ГБУЗ "Родильный дом №1 (специализированный)"</t>
         </is>
       </c>
       <c r="C88" s="3" t="n">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="E88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G88" s="3" t="n">
         <v>7</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L88" s="63" t="n">
-        <v>94.86</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Родильный дом №9"</t>
+          <t>СПб ГБУЗ "Родильный дом №10"</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="E89" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="K89" s="3" t="n">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="L89" s="63" t="n">
-        <v>73.72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Санкт-Петербургская городская дезинфекционная станция"</t>
+          <t>СПб ГБУЗ "Родильный дом №13"</t>
         </is>
       </c>
       <c r="C90" s="3" t="n">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G90" s="3" t="n">
         <v>4</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="L90" s="63" t="n">
-        <v>80.84999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГБУЗ "СЗЦККЛС"</t>
+          <t>СПб ГБУЗ "Родильный дом №16"</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="E91" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G91" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K91" s="3" t="n">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="L91" s="63" t="n">
-        <v>32.08</v>
+        <v>41.35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Туберкулезная больница №8"</t>
+          <t>СПб ГБУЗ "Родильный дом №17"</t>
         </is>
       </c>
       <c r="C92" s="3" t="n">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G92" s="3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I92" s="3" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="L92" s="63" t="n">
-        <v>95.20999999999999</v>
+        <v>85.64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Центр планирования семьи и репродукции"</t>
+          <t>СПб ГБУЗ "Родильный дом №6 им. проф. В.Ф.Снегирева"</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G93" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="L93" s="63" t="n">
-        <v>81.61</v>
+        <v>94.86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B94" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Центр по профилактике и борьбе со СПИД и инфекционными заболеваниями"</t>
+          <t>СПб ГБУЗ "Родильный дом №9"</t>
         </is>
       </c>
       <c r="C94" s="3" t="n">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="E94" s="3" t="n">
         <v>0</v>
@@ -5377,271 +5377,271 @@
         <v>1</v>
       </c>
       <c r="G94" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>493</v>
+        <v>289</v>
       </c>
       <c r="L94" s="63" t="n">
-        <v>93.37</v>
+        <v>73.72</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГКУ "Дирекция по Закупкам Комитета по здравоохранению"</t>
+          <t>СПб ГБУЗ "Санкт-Петербургская городская дезинфекционная станция"</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E95" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L95" s="63" t="n">
-        <v>100</v>
+        <v>80.84999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Амбулатория Мариинская"</t>
+          <t>СПБ ГБУЗ "СЗЦККЛС"</t>
         </is>
       </c>
       <c r="C96" s="3" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E96" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K96" s="3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L96" s="63" t="n">
-        <v>96</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Городская психиатрическая больница №3 им.И.И.Скворцова-Степанова"</t>
+          <t>СПб ГБУЗ "Туберкулезная больница №8"</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
-        <v>1269</v>
+        <v>144</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>1015</v>
+        <v>115</v>
       </c>
       <c r="E97" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G97" s="3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="I97" s="3" t="n">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>1037</v>
+        <v>43</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>1224</v>
+        <v>138</v>
       </c>
       <c r="L97" s="63" t="n">
-        <v>96.45</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B98" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Городская психиатрическая больница №6 (стационар с диспансером)"</t>
+          <t>СПб ГБУЗ "Центр планирования семьи и репродукции"</t>
         </is>
       </c>
       <c r="C98" s="3" t="n">
-        <v>576</v>
+        <v>172</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G98" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="I98" s="3" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>337</v>
+        <v>125</v>
       </c>
       <c r="K98" s="3" t="n">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="L98" s="63" t="n">
-        <v>79.69</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Городская станция переливания крови"</t>
+          <t>СПб ГБУЗ "Центр по профилактике и борьбе со СПИД и инфекционными заболеваниями"</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
-        <v>224</v>
+        <v>528</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>179</v>
+        <v>422</v>
       </c>
       <c r="E99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="F99" s="3" t="n">
-        <v>11</v>
       </c>
       <c r="G99" s="3" t="n">
         <v>3</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="I99" s="3" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="J99" s="3" t="n">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>217</v>
+        <v>493</v>
       </c>
       <c r="L99" s="63" t="n">
-        <v>96.88</v>
+        <v>93.37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B100" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Городской центр медицинской профилактики"</t>
+          <t>СПБ ГКУ "Дирекция по Закупкам Комитета по здравоохранению"</t>
         </is>
       </c>
       <c r="C100" s="3" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E100" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F100" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G100" s="3" t="n">
+      <c r="H100" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H100" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="I100" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="J100" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="K100" s="3" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L100" s="63" t="n">
         <v>100</v>
@@ -5650,547 +5650,547 @@
     <row r="101">
       <c r="A101" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "ГЦВЛДПН"</t>
+          <t>СПб ГКУЗ "Амбулатория Мариинская"</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E101" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G101" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="I101" s="3" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="L101" s="63" t="n">
-        <v>98.84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B102" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГКУЗ "ДГСЦ"</t>
+          <t>СПб ГКУЗ "Городская психиатрическая больница №3 им.И.И.Скворцова-Степанова"</t>
         </is>
       </c>
       <c r="C102" s="3" t="n">
-        <v>65</v>
+        <v>1269</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>52</v>
+        <v>1015</v>
       </c>
       <c r="E102" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G102" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="I102" s="3" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>52</v>
+        <v>1037</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>57</v>
+        <v>1224</v>
       </c>
       <c r="L102" s="63" t="n">
-        <v>87.69</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ Детский санаторий "Березка"</t>
+          <t>СПб ГКУЗ "Городская психиатрическая больница №6 (стационар с диспансером)"</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
-        <v>139</v>
+        <v>576</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="E103" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G103" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I103" s="3" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="L103" s="63" t="n">
-        <v>98.56</v>
+        <v>79.69</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ Детский санаторий "Жемчужина"</t>
+          <t>СПб ГКУЗ "Городская станция переливания крови"</t>
         </is>
       </c>
       <c r="C104" s="3" t="n">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G104" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="I104" s="3" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="L104" s="63" t="n">
-        <v>96.03</v>
+        <v>96.02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ Детский туберкулезный санаторий "Дружба"</t>
+          <t>СПб ГКУЗ "Городской центр медицинской профилактики"</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E105" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G105" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I105" s="3" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K105" s="3" t="n">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="L105" s="63" t="n">
-        <v>99.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Диагностический центр (медико-генетический)"</t>
+          <t>СПб ГКУЗ "ГЦВЛДПН"</t>
         </is>
       </c>
       <c r="C106" s="3" t="n">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="E106" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G106" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I106" s="3" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L106" s="63" t="n">
-        <v>93.51000000000001</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>СПБ ГКУЗ ОТ МЦ "Резерв"</t>
+          <t>СПБ ГКУЗ "ДГСЦ"</t>
         </is>
       </c>
       <c r="C107" s="3" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E107" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="I107" s="3" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="J107" s="3" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K107" s="3" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="L107" s="63" t="n">
-        <v>96</v>
+        <v>86.15000000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Психиатрическая больница Святого Николая Чудотворца"</t>
+          <t>СПб ГКУЗ Детский санаторий "Березка"</t>
         </is>
       </c>
       <c r="C108" s="3" t="n">
-        <v>679</v>
+        <v>137</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>543</v>
+        <v>110</v>
       </c>
       <c r="E108" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G108" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>485</v>
+        <v>125</v>
       </c>
       <c r="I108" s="3" t="n">
-        <v>478</v>
+        <v>125</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>670</v>
+        <v>135</v>
       </c>
       <c r="L108" s="63" t="n">
-        <v>98.67</v>
+        <v>98.54000000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ "Хоспис №2"</t>
+          <t>СПб ГКУЗ Детский санаторий "Жемчужина"</t>
         </is>
       </c>
       <c r="C109" s="3" t="n">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="E109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G109" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="L109" s="63" t="n">
-        <v>100</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="17" t="inlineStr">
         <is>
-          <t>25.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия" имени С.С. Мнухина</t>
+          <t>СПб ГКУЗ "Диагностический центр (медико-генетический)"</t>
         </is>
       </c>
       <c r="C110" s="3" t="n">
-        <v>748</v>
+        <v>153</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>598</v>
+        <v>122</v>
       </c>
       <c r="E110" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G110" s="3" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>712</v>
+        <v>144</v>
       </c>
       <c r="L110" s="63" t="n">
-        <v>95.19</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="17" t="inlineStr">
         <is>
-          <t>20.10.2022</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>КОМИТЕТ ПО ЗДРАВООХРАНЕНИЮ</t>
+          <t>СПБ ГКУЗ ОТ МЦ "Резерв"</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G111" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="L111" s="63" t="n">
-        <v>92.36</v>
+        <v>94.84999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="17" t="inlineStr">
         <is>
-          <t>18.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B112" s="12" t="inlineStr">
         <is>
-          <t>СПб ГАУЗ "Хоспис (детский)"</t>
+          <t>СПб ГКУЗ "Психиатрическая больница Святого Николая Чудотворца"</t>
         </is>
       </c>
       <c r="C112" s="3" t="n">
-        <v>134</v>
+        <v>681</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>107</v>
+        <v>545</v>
       </c>
       <c r="E112" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G112" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="I112" s="3" t="n">
-        <v>28</v>
+        <v>483</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="K112" s="3" t="n">
-        <v>47</v>
+        <v>675</v>
       </c>
       <c r="L112" s="63" t="n">
-        <v>35.07</v>
+        <v>99.12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="17" t="inlineStr">
         <is>
-          <t>18.05.2023</t>
+          <t>01.06.2023</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Противотуберкулезный диспансер №5"</t>
+          <t>СПб ГКУЗ "Хоспис №2"</t>
         </is>
       </c>
       <c r="C113" s="3" t="n">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G113" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I113" s="3" t="n">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K113" s="3" t="n">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="L113" s="63" t="n">
-        <v>91.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="39" thickBot="1">
@@ -6201,38 +6201,38 @@
       </c>
       <c r="B114" s="13" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №14"</t>
+          <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия" имени С.С. Мнухина</t>
         </is>
       </c>
       <c r="C114" s="15" t="n">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="D114" s="15" t="n">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E114" s="15" t="n">
         <v>0</v>
       </c>
       <c r="F114" s="15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G114" s="15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H114" s="15" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="I114" s="15" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="J114" s="15" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K114" s="15" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="L114" s="64" t="n">
-        <v/>
+        <v>95.19</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="39" thickBot="1">
@@ -6717,7 +6717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -6868,72 +6868,3849 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>СПб ГБУЗ "Городская больница №14"</t>
+          <t>ГБУ СПб НИИ СП им. И.И. Джанелидзе</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1962</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1939</v>
+      </c>
+      <c r="L4" t="n">
+        <v>98.83</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
+          <t>СПб ГАУЗ "Городская поликлиника №40"</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>128</v>
+      </c>
+      <c r="L5" t="n">
+        <v>85.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>СПб ГАУЗ "Городская поликлиника №81"</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>42</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68</v>
+      </c>
+      <c r="L6" t="n">
+        <v>90.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>СПб ГАУЗ "Городская поликлиника №83"</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>130</v>
+      </c>
+      <c r="D7" t="n">
+        <v>104</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" t="n">
+        <v>104</v>
+      </c>
+      <c r="L7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>СПб ГАУЗ "Поликлиника городская стоматологическая №22"</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>154</v>
+      </c>
+      <c r="D8" t="n">
+        <v>123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>49</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50</v>
+      </c>
+      <c r="K8" t="n">
+        <v>111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>СПб ГАУЗ "Хоспис (детский)"</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>135</v>
+      </c>
+      <c r="D9" t="n">
+        <v>108</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>28</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>СПб ГБОУ СПО "Медицинский колледж №1"</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>140</v>
+      </c>
+      <c r="D10" t="n">
+        <v>112</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>83</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>135</v>
+      </c>
+      <c r="L10" t="n">
+        <v>96.43000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>СПб ГБОУ СПО "Медицинский колледж №2"</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>162</v>
+      </c>
+      <c r="D11" t="n">
+        <v>130</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>117</v>
+      </c>
+      <c r="K11" t="n">
+        <v>153</v>
+      </c>
+      <c r="L11" t="n">
+        <v>94.44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>СПб ГБОУ СПО "Медицинский колледж №3"</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>141</v>
+      </c>
+      <c r="D12" t="n">
+        <v>113</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>118</v>
+      </c>
+      <c r="K12" t="n">
+        <v>139</v>
+      </c>
+      <c r="L12" t="n">
+        <v>98.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>СПБ ГБПОУ "АК"</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>99</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>87</v>
+      </c>
+      <c r="K13" t="n">
+        <v>121</v>
+      </c>
+      <c r="L13" t="n">
+        <v>97.58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>СПб ГБПОУ "Медицинский техникум №9"</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>59</v>
+      </c>
+      <c r="I14" t="n">
+        <v>59</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23</v>
+      </c>
+      <c r="K14" t="n">
+        <v>83</v>
+      </c>
+      <c r="L14" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>СПБ ГБПОУ "МТ №2"</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>90</v>
+      </c>
+      <c r="D15" t="n">
+        <v>72</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>76</v>
+      </c>
+      <c r="I15" t="n">
+        <v>75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>86</v>
+      </c>
+      <c r="L15" t="n">
+        <v>95.56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>СПБ ГБПОУ "Фельдшерский колледж"</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>150</v>
+      </c>
+      <c r="D16" t="n">
+        <v>120</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>106</v>
+      </c>
+      <c r="K16" t="n">
+        <v>127</v>
+      </c>
+      <c r="L16" t="n">
+        <v>84.67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>СПБ ГБУ ДПО "ЦПО СМП"</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>65</v>
+      </c>
+      <c r="I17" t="n">
+        <v>65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>81</v>
+      </c>
+      <c r="L17" t="n">
+        <v>92.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>СПб ГБУ "Стройкомплект"</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>65</v>
+      </c>
+      <c r="D18" t="n">
+        <v>52</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n">
+        <v>57</v>
+      </c>
+      <c r="L18" t="n">
+        <v>87.69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Александровская больница"</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2067</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1654</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>130</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>446</v>
+      </c>
+      <c r="I19" t="n">
+        <v>446</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1448</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L19" t="n">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Бюро судебно-медицинской экспертизы"</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>479</v>
+      </c>
+      <c r="D20" t="n">
+        <v>383</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>241</v>
+      </c>
+      <c r="I20" t="n">
+        <v>235</v>
+      </c>
+      <c r="J20" t="n">
+        <v>181</v>
+      </c>
+      <c r="K20" t="n">
+        <v>431</v>
+      </c>
+      <c r="L20" t="n">
+        <v>89.98</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>СПБ ГБУЗ "Введенская больница"</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>201</v>
+      </c>
+      <c r="D21" t="n">
+        <v>161</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>128</v>
+      </c>
+      <c r="I21" t="n">
+        <v>89</v>
+      </c>
+      <c r="J21" t="n">
+        <v>58</v>
+      </c>
+      <c r="K21" t="n">
+        <v>192</v>
+      </c>
+      <c r="L21" t="n">
+        <v>95.52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ ВЦДОиТ "Огонек"</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>203</v>
+      </c>
+      <c r="D22" t="n">
+        <v>162</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>112</v>
+      </c>
+      <c r="I22" t="n">
+        <v>112</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84</v>
+      </c>
+      <c r="K22" t="n">
+        <v>202</v>
+      </c>
+      <c r="L22" t="n">
+        <v>99.51000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская больница Святого Великомученика Георгия"</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12</v>
+      </c>
+      <c r="H23" t="n">
+        <v>800</v>
+      </c>
+      <c r="I23" t="n">
+        <v>756</v>
+      </c>
+      <c r="J23" t="n">
+        <v>517</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1317</v>
+      </c>
+      <c r="L23" t="n">
+        <v>93.06999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская больница Святой преподобномученицы Елизаветы"</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1486</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" t="n">
+        <v>785</v>
+      </c>
+      <c r="I24" t="n">
+        <v>729</v>
+      </c>
+      <c r="J24" t="n">
+        <v>694</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1504</v>
+      </c>
+      <c r="L24" t="n">
+        <v>80.98999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская больница №14"</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>360</v>
+      </c>
+      <c r="D25" t="n">
+        <v>288</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>168</v>
+      </c>
+      <c r="I25" t="n">
+        <v>86</v>
+      </c>
+      <c r="J25" t="n">
+        <v>132</v>
+      </c>
+      <c r="K25" t="n">
+        <v>300</v>
+      </c>
+      <c r="L25" t="n">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская больница №15"</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1117</v>
+      </c>
+      <c r="D26" t="n">
+        <v>894</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>671</v>
+      </c>
+      <c r="I26" t="n">
+        <v>671</v>
+      </c>
+      <c r="J26" t="n">
+        <v>391</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1076</v>
+      </c>
+      <c r="L26" t="n">
+        <v>96.33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская больница №26"</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1702</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1362</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>36</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1264</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1264</v>
+      </c>
+      <c r="J27" t="n">
+        <v>380</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1647</v>
+      </c>
+      <c r="L27" t="n">
+        <v>96.77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская больница №38 им. Н.А.Семашко"</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>950</v>
+      </c>
+      <c r="D28" t="n">
+        <v>760</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>595</v>
+      </c>
+      <c r="I28" t="n">
+        <v>580</v>
+      </c>
+      <c r="J28" t="n">
+        <v>332</v>
+      </c>
+      <c r="K28" t="n">
+        <v>942</v>
+      </c>
+      <c r="L28" t="n">
+        <v>99.16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская детская стоматологическая поликлиника №6"</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>70</v>
+      </c>
+      <c r="D29" t="n">
+        <v>56</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>60</v>
+      </c>
+      <c r="I29" t="n">
+        <v>60</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>63</v>
+      </c>
+      <c r="L29" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская клиническая больница №31"</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>861</v>
+      </c>
+      <c r="D30" t="n">
+        <v>689</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>56</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>465</v>
+      </c>
+      <c r="I30" t="n">
+        <v>465</v>
+      </c>
+      <c r="J30" t="n">
+        <v>340</v>
+      </c>
+      <c r="K30" t="n">
+        <v>861</v>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская Мариинская больница"</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2310</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1848</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>169</v>
+      </c>
+      <c r="G31" t="n">
+        <v>13</v>
+      </c>
+      <c r="H31" t="n">
+        <v>821</v>
+      </c>
+      <c r="I31" t="n">
+        <v>587</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1209</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2199</v>
+      </c>
+      <c r="L31" t="n">
+        <v>95.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская многопрофильная больница №2"</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1655</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>44</v>
+      </c>
+      <c r="G32" t="n">
+        <v>54</v>
+      </c>
+      <c r="H32" t="n">
+        <v>962</v>
+      </c>
+      <c r="I32" t="n">
+        <v>962</v>
+      </c>
+      <c r="J32" t="n">
+        <v>596</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1602</v>
+      </c>
+      <c r="L32" t="n">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская наркологическая больница"</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>640</v>
+      </c>
+      <c r="D33" t="n">
+        <v>512</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>67</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>356</v>
+      </c>
+      <c r="I33" t="n">
+        <v>356</v>
+      </c>
+      <c r="J33" t="n">
+        <v>168</v>
+      </c>
+      <c r="K33" t="n">
+        <v>591</v>
+      </c>
+      <c r="L33" t="n">
+        <v>92.34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская Покровская больница"</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>995</v>
+      </c>
+      <c r="D34" t="n">
+        <v>796</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>26</v>
+      </c>
+      <c r="H34" t="n">
+        <v>753</v>
+      </c>
+      <c r="I34" t="n">
+        <v>675</v>
+      </c>
+      <c r="J34" t="n">
+        <v>184</v>
+      </c>
+      <c r="K34" t="n">
+        <v>940</v>
+      </c>
+      <c r="L34" t="n">
+        <v>94.47</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская психиатрическая больница №7 им.акад.И.П.Павлова"</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>214</v>
+      </c>
+      <c r="D35" t="n">
+        <v>171</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>73</v>
+      </c>
+      <c r="I35" t="n">
+        <v>72</v>
+      </c>
+      <c r="J35" t="n">
+        <v>77</v>
+      </c>
+      <c r="K35" t="n">
+        <v>157</v>
+      </c>
+      <c r="L35" t="n">
+        <v>73.36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская станция скорой медицинской помощи"</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2061</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>24</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1592</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1592</v>
+      </c>
+      <c r="J36" t="n">
+        <v>460</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2061</v>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская стоматологическая поликлиника №33"</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>354</v>
+      </c>
+      <c r="D37" t="n">
+        <v>283</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>78</v>
+      </c>
+      <c r="I37" t="n">
+        <v>78</v>
+      </c>
+      <c r="J37" t="n">
+        <v>241</v>
+      </c>
+      <c r="K37" t="n">
+        <v>354</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городская туберкулезная больница №2"</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>310</v>
+      </c>
+      <c r="D38" t="n">
+        <v>248</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>26</v>
+      </c>
+      <c r="H38" t="n">
+        <v>160</v>
+      </c>
+      <c r="I38" t="n">
+        <v>110</v>
+      </c>
+      <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>285</v>
+      </c>
+      <c r="L38" t="n">
+        <v>91.94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городское патологоанатомическое бюро"</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>193</v>
+      </c>
+      <c r="D39" t="n">
+        <v>154</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>60</v>
+      </c>
+      <c r="I39" t="n">
+        <v>60</v>
+      </c>
+      <c r="J39" t="n">
+        <v>120</v>
+      </c>
+      <c r="K39" t="n">
+        <v>183</v>
+      </c>
+      <c r="L39" t="n">
+        <v>94.81999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городской врачебно-физкультурный диспансер"</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>174</v>
+      </c>
+      <c r="D40" t="n">
+        <v>139</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>67</v>
+      </c>
+      <c r="I40" t="n">
+        <v>67</v>
+      </c>
+      <c r="J40" t="n">
+        <v>58</v>
+      </c>
+      <c r="K40" t="n">
+        <v>126</v>
+      </c>
+      <c r="L40" t="n">
+        <v>72.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городской гериатрический медико-социальный центр"</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>520</v>
+      </c>
+      <c r="D41" t="n">
+        <v>416</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>21</v>
+      </c>
+      <c r="H41" t="n">
+        <v>55</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>383</v>
+      </c>
+      <c r="K41" t="n">
+        <v>445</v>
+      </c>
+      <c r="L41" t="n">
+        <v>85.58</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городской клинический онкологический диспансер"</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1337</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1070</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>60</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13</v>
+      </c>
+      <c r="H42" t="n">
+        <v>444</v>
+      </c>
+      <c r="I42" t="n">
+        <v>444</v>
+      </c>
+      <c r="J42" t="n">
+        <v>529</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1033</v>
+      </c>
+      <c r="L42" t="n">
+        <v>77.26000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городской кожно-венерологический диспансер"</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>277</v>
+      </c>
+      <c r="D43" t="n">
+        <v>222</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>205</v>
+      </c>
+      <c r="K43" t="n">
+        <v>222</v>
+      </c>
+      <c r="L43" t="n">
+        <v>80.14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городской консультативно-диагностический центр №1"</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>639</v>
+      </c>
+      <c r="D44" t="n">
+        <v>511</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>26</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>557</v>
+      </c>
+      <c r="I44" t="n">
+        <v>557</v>
+      </c>
+      <c r="J44" t="n">
+        <v>56</v>
+      </c>
+      <c r="K44" t="n">
+        <v>639</v>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Городской противотуберкулезный диспансер"</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>460</v>
+      </c>
+      <c r="D45" t="n">
+        <v>368</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>18</v>
+      </c>
+      <c r="H45" t="n">
+        <v>350</v>
+      </c>
+      <c r="I45" t="n">
+        <v>350</v>
+      </c>
+      <c r="J45" t="n">
+        <v>92</v>
+      </c>
+      <c r="K45" t="n">
+        <v>442</v>
+      </c>
+      <c r="L45" t="n">
+        <v>96.09</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ Городской туберкулезный санаторий "Сосновый Бор"</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>82</v>
+      </c>
+      <c r="D46" t="n">
+        <v>66</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>52</v>
+      </c>
+      <c r="I46" t="n">
+        <v>52</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="n">
+        <v>77</v>
+      </c>
+      <c r="L46" t="n">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Госпиталь для ветеранов войн"</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1377</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="n">
+        <v>36</v>
+      </c>
+      <c r="H47" t="n">
+        <v>561</v>
+      </c>
+      <c r="I47" t="n">
+        <v>561</v>
+      </c>
+      <c r="J47" t="n">
+        <v>767</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1343</v>
+      </c>
+      <c r="L47" t="n">
+        <v>97.53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "ГПЦ №1"</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>411</v>
+      </c>
+      <c r="D48" t="n">
+        <v>329</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>255</v>
+      </c>
+      <c r="I48" t="n">
+        <v>255</v>
+      </c>
+      <c r="J48" t="n">
+        <v>126</v>
+      </c>
+      <c r="K48" t="n">
+        <v>394</v>
+      </c>
+      <c r="L48" t="n">
+        <v>95.86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ ГЦОРЗП "Ювента"</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>110</v>
+      </c>
+      <c r="D49" t="n">
+        <v>88</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>79</v>
+      </c>
+      <c r="K49" t="n">
+        <v>107</v>
+      </c>
+      <c r="L49" t="n">
+        <v>97.27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "ДГБ №2 святой Марии Магдалины"</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>643</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>229</v>
+      </c>
+      <c r="I50" t="n">
+        <v>225</v>
+      </c>
+      <c r="J50" t="n">
+        <v>322</v>
+      </c>
+      <c r="K50" t="n">
+        <v>559</v>
+      </c>
+      <c r="L50" t="n">
+        <v>86.94</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>СПБ ГБУЗ "ДГМКЦ ВМТ им. К.А. Раухфуса"</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>822</v>
+      </c>
+      <c r="D51" t="n">
+        <v>658</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>408</v>
+      </c>
+      <c r="I51" t="n">
+        <v>408</v>
+      </c>
+      <c r="J51" t="n">
+        <v>350</v>
+      </c>
+      <c r="K51" t="n">
+        <v>768</v>
+      </c>
+      <c r="L51" t="n">
+        <v>93.43000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Детская городская больница Святой Ольги"</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>526</v>
+      </c>
+      <c r="D52" t="n">
+        <v>421</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>31</v>
+      </c>
+      <c r="G52" t="n">
+        <v>28</v>
+      </c>
+      <c r="H52" t="n">
+        <v>157</v>
+      </c>
+      <c r="I52" t="n">
+        <v>157</v>
+      </c>
+      <c r="J52" t="n">
+        <v>192</v>
+      </c>
+      <c r="K52" t="n">
+        <v>380</v>
+      </c>
+      <c r="L52" t="n">
+        <v>72.23999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Детская городская больница №17 Святителя Николая Чудотворца"</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>323</v>
+      </c>
+      <c r="D53" t="n">
+        <v>258</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>23</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>35</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>21</v>
+      </c>
+      <c r="K53" t="n">
+        <v>79</v>
+      </c>
+      <c r="L53" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Детская городская клиническая больница №5 имени Нила Федоровича Филатова"</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>996</v>
+      </c>
+      <c r="D54" t="n">
+        <v>797</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16</v>
+      </c>
+      <c r="H54" t="n">
+        <v>495</v>
+      </c>
+      <c r="I54" t="n">
+        <v>448</v>
+      </c>
+      <c r="J54" t="n">
+        <v>394</v>
+      </c>
+      <c r="K54" t="n">
+        <v>898</v>
+      </c>
+      <c r="L54" t="n">
+        <v>90.16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Детская инфекционная больница №3"</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>242</v>
+      </c>
+      <c r="D55" t="n">
+        <v>194</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12</v>
+      </c>
+      <c r="H55" t="n">
+        <v>155</v>
+      </c>
+      <c r="I55" t="n">
+        <v>151</v>
+      </c>
+      <c r="J55" t="n">
+        <v>76</v>
+      </c>
+      <c r="K55" t="n">
+        <v>240</v>
+      </c>
+      <c r="L55" t="n">
+        <v>99.17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>СПБ ГБУЗ "Детский городской многопрофильный клинический специализированный центр высоких медицинских технологий"</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1553</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1242</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>50</v>
+      </c>
+      <c r="G56" t="n">
+        <v>120</v>
+      </c>
+      <c r="H56" t="n">
+        <v>560</v>
+      </c>
+      <c r="I56" t="n">
+        <v>560</v>
+      </c>
+      <c r="J56" t="n">
+        <v>610</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1220</v>
+      </c>
+      <c r="L56" t="n">
+        <v>78.56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ Детский психоневрологический санаторий "Комарово"</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>170</v>
+      </c>
+      <c r="D57" t="n">
+        <v>136</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>19</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>87</v>
+      </c>
+      <c r="K57" t="n">
+        <v>128</v>
+      </c>
+      <c r="L57" t="n">
+        <v>75.29000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Детский санаторий - РЦ "Детские Дюны"</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>325</v>
+      </c>
+      <c r="D58" t="n">
+        <v>260</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>29</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>128</v>
+      </c>
+      <c r="K58" t="n">
+        <v>164</v>
+      </c>
+      <c r="L58" t="n">
+        <v>50.46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ Детский санаторий "Пионер" (психоневрологический)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>105</v>
+      </c>
+      <c r="D59" t="n">
+        <v>84</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>23</v>
+      </c>
+      <c r="L59" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ Детский санаторий "Солнечное"</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>414</v>
+      </c>
+      <c r="D60" t="n">
+        <v>331</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>153</v>
+      </c>
+      <c r="I60" t="n">
+        <v>65</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>164</v>
+      </c>
+      <c r="L60" t="n">
+        <v>39.61</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Детский центр восстановительной медицины и реабилитации №3"</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>96</v>
+      </c>
+      <c r="D61" t="n">
+        <v>77</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>75</v>
+      </c>
+      <c r="I61" t="n">
+        <v>75</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15</v>
+      </c>
+      <c r="K61" t="n">
+        <v>96</v>
+      </c>
+      <c r="L61" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Диагностический Центр №7" (глазной) для взрослого и детского населения</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>383</v>
+      </c>
+      <c r="D62" t="n">
+        <v>306</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>36</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>43</v>
+      </c>
+      <c r="L62" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>СПБ ГБУЗ КДЦД</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>311</v>
+      </c>
+      <c r="D63" t="n">
+        <v>249</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>141</v>
+      </c>
+      <c r="I63" t="n">
+        <v>141</v>
+      </c>
+      <c r="J63" t="n">
+        <v>162</v>
+      </c>
+      <c r="K63" t="n">
+        <v>307</v>
+      </c>
+      <c r="L63" t="n">
+        <v>98.70999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Клиническая больница Святителя Луки"</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>500</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>218</v>
+      </c>
+      <c r="I64" t="n">
+        <v>218</v>
+      </c>
+      <c r="J64" t="n">
+        <v>196</v>
+      </c>
+      <c r="K64" t="n">
+        <v>417</v>
+      </c>
+      <c r="L64" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Клиническая инфекционная больница им. С.П. Боткина"</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2654</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>296</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1913</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1395</v>
+      </c>
+      <c r="J65" t="n">
+        <v>295</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2504</v>
+      </c>
+      <c r="L65" t="n">
+        <v>94.34999999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Клиническая ревматологическая больница №25"</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>273</v>
+      </c>
+      <c r="D66" t="n">
+        <v>218</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9</v>
+      </c>
+      <c r="H66" t="n">
+        <v>36</v>
+      </c>
+      <c r="I66" t="n">
+        <v>36</v>
+      </c>
+      <c r="J66" t="n">
+        <v>197</v>
+      </c>
+      <c r="K66" t="n">
+        <v>238</v>
+      </c>
+      <c r="L66" t="n">
+        <v>87.18000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "КНпЦСВМП(о)"</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12</v>
+      </c>
+      <c r="G67" t="n">
+        <v>50</v>
+      </c>
+      <c r="H67" t="n">
+        <v>710</v>
+      </c>
+      <c r="I67" t="n">
+        <v>200</v>
+      </c>
+      <c r="J67" t="n">
+        <v>300</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L67" t="n">
+        <v>72.23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Медицинский информационно-аналитический центр"</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>296</v>
+      </c>
+      <c r="D68" t="n">
+        <v>237</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>92</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>101</v>
+      </c>
+      <c r="I68" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" t="n">
+        <v>68</v>
+      </c>
+      <c r="K68" t="n">
+        <v>261</v>
+      </c>
+      <c r="L68" t="n">
+        <v>88.18000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Межрайонный Петроградско-Приморский противотуберкулезный диспансер №3"</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>117</v>
+      </c>
+      <c r="D69" t="n">
+        <v>94</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>11</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>66</v>
+      </c>
+      <c r="I69" t="n">
+        <v>66</v>
+      </c>
+      <c r="J69" t="n">
+        <v>35</v>
+      </c>
+      <c r="K69" t="n">
+        <v>112</v>
+      </c>
+      <c r="L69" t="n">
+        <v>95.73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №11"</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>96</v>
+      </c>
+      <c r="D70" t="n">
+        <v>77</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>57</v>
+      </c>
+      <c r="I70" t="n">
+        <v>57</v>
+      </c>
+      <c r="J70" t="n">
+        <v>30</v>
+      </c>
+      <c r="K70" t="n">
+        <v>87</v>
+      </c>
+      <c r="L70" t="n">
+        <v>90.63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №12"</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>74</v>
+      </c>
+      <c r="D71" t="n">
+        <v>59</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" t="n">
+        <v>18</v>
+      </c>
+      <c r="L71" t="n">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №14"</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>84</v>
+      </c>
+      <c r="D72" t="n">
+        <v>67</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21</v>
+      </c>
+      <c r="I72" t="n">
+        <v>21</v>
+      </c>
+      <c r="J72" t="n">
+        <v>47</v>
+      </c>
+      <c r="K72" t="n">
+        <v>71</v>
+      </c>
+      <c r="L72" t="n">
+        <v>84.52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №15"</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>62</v>
+      </c>
+      <c r="D73" t="n">
+        <v>50</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>60</v>
+      </c>
+      <c r="K73" t="n">
+        <v>62</v>
+      </c>
+      <c r="L73" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №16"</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>104</v>
+      </c>
+      <c r="D74" t="n">
+        <v>83</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>60</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60</v>
+      </c>
+      <c r="J74" t="n">
+        <v>32</v>
+      </c>
+      <c r="K74" t="n">
+        <v>92</v>
+      </c>
+      <c r="L74" t="n">
+        <v>88.45999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №4"</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>54</v>
+      </c>
+      <c r="D75" t="n">
+        <v>43</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>33</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33</v>
+      </c>
+      <c r="J75" t="n">
+        <v>13</v>
+      </c>
+      <c r="K75" t="n">
+        <v>46</v>
+      </c>
+      <c r="L75" t="n">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №5"</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>185</v>
+      </c>
+      <c r="D76" t="n">
+        <v>148</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10</v>
+      </c>
+      <c r="H76" t="n">
+        <v>163</v>
+      </c>
+      <c r="I76" t="n">
+        <v>163</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>169</v>
+      </c>
+      <c r="L76" t="n">
+        <v>91.34999999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Противотуберкулезный диспансер №8"</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>57</v>
+      </c>
+      <c r="D77" t="n">
+        <v>46</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>38</v>
+      </c>
+      <c r="K77" t="n">
+        <v>53</v>
+      </c>
+      <c r="L77" t="n">
+        <v>92.98</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Психиатрическая больница №1 им.П.П.Кащенко"</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1489</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1191</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1099</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J78" t="n">
+        <v>340</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1448</v>
+      </c>
+      <c r="L78" t="n">
+        <v>97.25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Пушкинский противотуберкулезный диспансер"</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>158</v>
+      </c>
+      <c r="D79" t="n">
+        <v>126</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>58</v>
+      </c>
+      <c r="I79" t="n">
+        <v>58</v>
+      </c>
+      <c r="J79" t="n">
+        <v>62</v>
+      </c>
+      <c r="K79" t="n">
+        <v>124</v>
+      </c>
+      <c r="L79" t="n">
+        <v>78.48</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №1 (специализированный)"</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>216</v>
+      </c>
+      <c r="D80" t="n">
+        <v>173</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7</v>
+      </c>
+      <c r="H80" t="n">
+        <v>196</v>
+      </c>
+      <c r="I80" t="n">
+        <v>195</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>200</v>
+      </c>
+      <c r="L80" t="n">
+        <v>92.59</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №10"</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>450</v>
+      </c>
+      <c r="D81" t="n">
+        <v>360</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>137</v>
+      </c>
+      <c r="I81" t="n">
+        <v>137</v>
+      </c>
+      <c r="J81" t="n">
+        <v>311</v>
+      </c>
+      <c r="K81" t="n">
+        <v>450</v>
+      </c>
+      <c r="L81" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №13"</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>179</v>
+      </c>
+      <c r="D82" t="n">
+        <v>143</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>169</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>179</v>
+      </c>
+      <c r="L82" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №16"</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>370</v>
+      </c>
+      <c r="D83" t="n">
+        <v>296</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9</v>
+      </c>
+      <c r="H83" t="n">
+        <v>28</v>
+      </c>
+      <c r="I83" t="n">
+        <v>28</v>
+      </c>
+      <c r="J83" t="n">
+        <v>110</v>
+      </c>
+      <c r="K83" t="n">
+        <v>153</v>
+      </c>
+      <c r="L83" t="n">
+        <v>41.35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №17"</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>195</v>
+      </c>
+      <c r="D84" t="n">
+        <v>156</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17</v>
+      </c>
+      <c r="H84" t="n">
+        <v>30</v>
+      </c>
+      <c r="I84" t="n">
+        <v>30</v>
+      </c>
+      <c r="J84" t="n">
+        <v>124</v>
+      </c>
+      <c r="K84" t="n">
+        <v>167</v>
+      </c>
+      <c r="L84" t="n">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №6 им. проф. В.Ф.Снегирева"</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>253</v>
+      </c>
+      <c r="D85" t="n">
+        <v>202</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>35</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>134</v>
+      </c>
+      <c r="I85" t="n">
+        <v>134</v>
+      </c>
+      <c r="J85" t="n">
+        <v>71</v>
+      </c>
+      <c r="K85" t="n">
+        <v>240</v>
+      </c>
+      <c r="L85" t="n">
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Родильный дом №9"</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>392</v>
+      </c>
+      <c r="D86" t="n">
+        <v>314</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18</v>
+      </c>
+      <c r="H86" t="n">
+        <v>288</v>
+      </c>
+      <c r="I86" t="n">
+        <v>288</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>289</v>
+      </c>
+      <c r="L86" t="n">
+        <v>73.72</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Санкт-Петербургская городская дезинфекционная станция"</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>47</v>
+      </c>
+      <c r="D87" t="n">
+        <v>38</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" t="n">
+        <v>30</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>38</v>
+      </c>
+      <c r="L87" t="n">
+        <v>80.84999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>СПБ ГБУЗ "СЗЦККЛС"</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>53</v>
+      </c>
+      <c r="D88" t="n">
+        <v>42</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10</v>
+      </c>
+      <c r="L88" t="n">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Туберкулезная больница №8"</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>144</v>
+      </c>
+      <c r="D89" t="n">
+        <v>115</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="n">
+        <v>95</v>
+      </c>
+      <c r="I89" t="n">
+        <v>95</v>
+      </c>
+      <c r="J89" t="n">
+        <v>43</v>
+      </c>
+      <c r="K89" t="n">
+        <v>138</v>
+      </c>
+      <c r="L89" t="n">
+        <v>95.83</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Центр планирования семьи и репродукции"</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>172</v>
+      </c>
+      <c r="D90" t="n">
+        <v>138</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" t="n">
+        <v>125</v>
+      </c>
+      <c r="K90" t="n">
+        <v>140</v>
+      </c>
+      <c r="L90" t="n">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>СПб ГБУЗ "Центр по профилактике и борьбе со СПИД и инфекционными заболеваниями"</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>528</v>
+      </c>
+      <c r="D91" t="n">
+        <v>422</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>48</v>
+      </c>
+      <c r="I91" t="n">
+        <v>48</v>
+      </c>
+      <c r="J91" t="n">
+        <v>444</v>
+      </c>
+      <c r="K91" t="n">
+        <v>493</v>
+      </c>
+      <c r="L91" t="n">
+        <v>93.37</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>СПБ ГКУ "Дирекция по Закупкам Комитета по здравоохранению"</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>36</v>
+      </c>
+      <c r="D92" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>25</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>36</v>
+      </c>
+      <c r="L92" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Амбулатория Мариинская"</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>25</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11</v>
+      </c>
+      <c r="K93" t="n">
+        <v>24</v>
+      </c>
+      <c r="L93" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Городская психиатрическая больница №3 им.И.И.Скворцова-Степанова"</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>30</v>
+      </c>
+      <c r="G94" t="n">
+        <v>15</v>
+      </c>
+      <c r="H94" t="n">
+        <v>157</v>
+      </c>
+      <c r="I94" t="n">
+        <v>157</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1037</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1224</v>
+      </c>
+      <c r="L94" t="n">
+        <v>96.45</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Городская психиатрическая больница №6 (стационар с диспансером)"</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>576</v>
+      </c>
+      <c r="D95" t="n">
+        <v>461</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>115</v>
+      </c>
+      <c r="I95" t="n">
+        <v>115</v>
+      </c>
+      <c r="J95" t="n">
+        <v>337</v>
+      </c>
+      <c r="K95" t="n">
+        <v>459</v>
+      </c>
+      <c r="L95" t="n">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Городская станция переливания крови"</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>226</v>
+      </c>
+      <c r="D96" t="n">
+        <v>181</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>150</v>
+      </c>
+      <c r="I96" t="n">
+        <v>150</v>
+      </c>
+      <c r="J96" t="n">
+        <v>56</v>
+      </c>
+      <c r="K96" t="n">
+        <v>217</v>
+      </c>
+      <c r="L96" t="n">
+        <v>96.02</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Городской центр медицинской профилактики"</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>59</v>
+      </c>
+      <c r="D97" t="n">
+        <v>47</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="n">
+        <v>47</v>
+      </c>
+      <c r="I97" t="n">
+        <v>47</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11</v>
+      </c>
+      <c r="K97" t="n">
+        <v>59</v>
+      </c>
+      <c r="L97" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "ГЦВЛДПН"</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>86</v>
+      </c>
+      <c r="D98" t="n">
+        <v>69</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>62</v>
+      </c>
+      <c r="I98" t="n">
+        <v>62</v>
+      </c>
+      <c r="J98" t="n">
+        <v>23</v>
+      </c>
+      <c r="K98" t="n">
+        <v>85</v>
+      </c>
+      <c r="L98" t="n">
+        <v>98.84</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>СПБ ГКУЗ "ДГСЦ"</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>65</v>
+      </c>
+      <c r="D99" t="n">
+        <v>52</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>52</v>
+      </c>
+      <c r="K99" t="n">
+        <v>56</v>
+      </c>
+      <c r="L99" t="n">
+        <v>86.15000000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ Детский санаторий "Березка"</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>137</v>
+      </c>
+      <c r="D100" t="n">
+        <v>110</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>125</v>
+      </c>
+      <c r="I100" t="n">
+        <v>125</v>
+      </c>
+      <c r="J100" t="n">
+        <v>10</v>
+      </c>
+      <c r="K100" t="n">
+        <v>135</v>
+      </c>
+      <c r="L100" t="n">
+        <v>98.54000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ Детский санаторий "Жемчужина"</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>151</v>
+      </c>
+      <c r="D101" t="n">
+        <v>121</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7</v>
+      </c>
+      <c r="H101" t="n">
+        <v>105</v>
+      </c>
+      <c r="I101" t="n">
+        <v>105</v>
+      </c>
+      <c r="J101" t="n">
+        <v>33</v>
+      </c>
+      <c r="K101" t="n">
+        <v>145</v>
+      </c>
+      <c r="L101" t="n">
+        <v>96.03</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Диагностический центр (медико-генетический)"</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>153</v>
+      </c>
+      <c r="D102" t="n">
+        <v>122</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>140</v>
+      </c>
+      <c r="K102" t="n">
+        <v>144</v>
+      </c>
+      <c r="L102" t="n">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>СПБ ГКУЗ ОТ МЦ "Резерв"</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>97</v>
+      </c>
+      <c r="D103" t="n">
+        <v>78</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>74</v>
+      </c>
+      <c r="I103" t="n">
+        <v>74</v>
+      </c>
+      <c r="J103" t="n">
+        <v>18</v>
+      </c>
+      <c r="K103" t="n">
+        <v>92</v>
+      </c>
+      <c r="L103" t="n">
+        <v>94.84999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Психиатрическая больница Святого Николая Чудотворца"</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>681</v>
+      </c>
+      <c r="D104" t="n">
+        <v>545</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H104" t="n">
+        <v>488</v>
+      </c>
+      <c r="I104" t="n">
+        <v>483</v>
+      </c>
+      <c r="J104" t="n">
+        <v>183</v>
+      </c>
+      <c r="K104" t="n">
+        <v>675</v>
+      </c>
+      <c r="L104" t="n">
+        <v>99.12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ "Хоспис №2"</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>76</v>
+      </c>
+      <c r="D105" t="n">
+        <v>61</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>24</v>
+      </c>
+      <c r="I105" t="n">
+        <v>23</v>
+      </c>
+      <c r="J105" t="n">
+        <v>49</v>
+      </c>
+      <c r="K105" t="n">
+        <v>76</v>
+      </c>
+      <c r="L105" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия" имени С.С. Мнухина</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>748</v>
+      </c>
+      <c r="D106" t="n">
+        <v>598</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>30</v>
+      </c>
+      <c r="G106" t="n">
+        <v>50</v>
+      </c>
+      <c r="H106" t="n">
+        <v>464</v>
+      </c>
+      <c r="I106" t="n">
+        <v>444</v>
+      </c>
+      <c r="J106" t="n">
+        <v>218</v>
+      </c>
+      <c r="K106" t="n">
+        <v>712</v>
+      </c>
+      <c r="L106" t="n">
+        <v>95.19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
           <t>ИТОГО:</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v/>
+      <c r="C107" t="n">
+        <v>51103</v>
+      </c>
+      <c r="D107" t="n">
+        <v>40885</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1789</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1023</v>
+      </c>
+      <c r="H107" t="n">
+        <v>24706</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22486</v>
+      </c>
+      <c r="J107" t="n">
+        <v>19067</v>
+      </c>
+      <c r="K107" t="n">
+        <v>45562</v>
+      </c>
+      <c r="L107" t="n">
+        <v>8814.770000000004</v>
       </c>
     </row>
   </sheetData>
